--- a/500all/speech_level/speeches_CHRG-114hhrg99648.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99648.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Ladies and gentlemen, I call this hearing of the Emerging Threats and Capabilities Subcommittee of the House Armed Services Committee to order. I am pleased to welcome everyone here today to discuss our special operations forces in an evolving threat environment and to review the fiscal year 2017 budget request for the U.S. Special Operations Command.    Our special operations forces [SOF] remain essential and sometimes sole line of effort across the globe, offering lethal, flexible, and responsive options for geographic combatant commanders and the Commander in Chief.    We have seen special operations forces increasingly leveraged for asymmetric and unconventional warfare operations against nation-state threats such as Russia, China, and Iran. Looking forward we expect special operations forces to remain heavily deployed across the globe in constant, sadly if not increased, numbers throughout fiscal year 2017.    While the President's budget request includes a 2.3 percent increase to U.S. Special Operations Command, many challenges remain since the force is heavily dependent on overseas contingency operations funding.    Furthermore, we see dwindling support from the military services who themselves suffer broader cuts and drawdowns. As we conduct oversight and preparation for the National Defense Authorization Act [NDAA], this subcommittee will spend considerable time ensuring that all resources are aligned and all policies appropriate.    This includes focusing on how our special operations forces are being used to counter adversarial propaganda and enabling our partner forces across the globe with new programs such as the European Reassurance Initiative and the Counter Terrorism Partnership Fund.    Lastly, but of considerable importance, is the 1208 counterterrorism program authority used by the special operations requiring reauthorization beyond 2017. This important operational authority has proven critical to our global efforts to counter Al Qaeda and Daesh.    I understand the Department [of Defense] [DOD] will seek an extension of this important authority to 2020. So we look forward to discussing that today.    I would like to welcome our distinguished panel of witnesses and appreciate their service and perspectives on all of these issues. Today we welcome Ms. Theresa Whelan, the Principal Deputy Assistant Secretary of Defense for Special Operations and Low-Intensity Conflict [SOLIC], and General Joseph Votel, Commander, U.S. Special Operations Command.    I would like to welcome Ms. Whelan in her new role which carries many important responsibilities, but also take the opportunity to recognize the service of General Votel who was recently nominated as commander of U.S. Central Command.    General Votel's contributions have been critical in safeguarding our Nation and our allies. And we wish you the best of success as you further serve American families.    I would like to turn to my friend the ranking member, Mr. Jim Langevin of Rhode Island, for any comments he would like to make.    [The prepared statement of Mr. Wilson can be found in the Appendix on page 29.]</t>
   </si>
   <si>
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you Mr. Chairman. And I want to thank our witnesses for testifying today on the President's fiscal year 2017 budget request for Special Operations Command [SOCOM] and special operations forces.    And, General, in particular, thank you very much for your service. And I look forward to hearing the testimony from both of our witnesses today. And also welcome to you, Secretary Whelan.    Today in the midst of our discussions and debate about decreasing end strengths of general purpose forces, and plan drawdowns and contingencies overseas, our special operations forces continue to serve in a high operational tempo.    Special forces are the pinnacle of our strategy for defeating terrorists around the world, underpin our sensitive military operations, and stand ready to deploy on a moment's notice.    Although SOCOM has authority for spending on SOF-peculiar equipment and needs, we often neglect to recognize the reliance on general purpose forces and service budget's requirements ranging from enablers to facilities, to family counselors.    I hope today's hearing will provide a better understanding of the impact of those drawdowns and budget reductions of their enterprise as well as inform us of the process in place for ensuring that SOF service common needs are being budgeted for by the services, especially those that are necessary to preserve the health of the force and their families.    With regard to SOF-peculiar investments, I am pleased to see stability in the science and technology allocation, as well appropriate budgeting for these activities over the Future Years Defense Program.    Leveraging and spurring innovation is a theme across the Department in the budget request. And SOCOM certainly has experience in the area.    I appreciate the use of existing authorities to push the envelope rather than reinventing the wheel, examples being the recent SOFWERX Initiative and the utilization of the Small Business Innovation Research authority.    I also appreciate that in reaching to non-traditional defense partners, SOCOM continues to utilize the tremendous in-house capabilities available, such as our defense labs and DARPA [Defense Advanced Research Projects Agency] programs.    So with that there is much to discuss in the hearing. And in order to allow for dialogue I am going to end my remarks by welcoming Ms. Theresa Whelan in her capacity as the Principal Deputy Assistant Secretary of Defense, Special Operations/Low-Intensity Conflict and performing the duties of Assistant Secretary for SOLIC.    With that I would also like to congratulate General Votel on his nomination to be the commander of Central Command. Again, General, I want to thank you for your extraordinary service and dedication to our country and look forward to your upcoming confirmation hearing.    So with that, Mr. Chairman, I yield back and look forward to the hearing. Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whelan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Whelan. Thank you, Chairman Wilson, Ranking Member Langevin, and distinguished members of the committee. And thank you for the opportunity to testify before you today.    I am here performing the duties of the Assistant Secretary of Defense for Special Operations and Low-Intensity Conflict to report to you on the health and welfare of our Nation's special operations forces enterprise, and on our ability to address our country's security concerns using special operations, now and into the future.    I am pleased that my partner at the table this afternoon is General Votel, who has been an exceptional U.S. SOCOM commander. And our entire SOLIC team was very glad to learn that he has been nominated to lead U.S. Central Command.    I would like to say up front that we are very grateful for the committee's strong support of special operations initiatives and resources. My remarks this afternoon will focus on three topics: the current operating environment, SOLIC's policy priorities, and our oversight activities.    Today our SOF personnel work in an environment where global conflict has expanded beyond the physical to dimensions such as cyberspace, the social media sphere, and bio warfare. Individuals, illicit networks, and terrorist groups such as Daesh can disrupt economies, interrupt the flow of information, and perpetrate significant violence, destabilizing countries and entire regions.    We are also seeing other nations, our peers and near peers, making use of these same new technologies to enhance aggressive, asymmetric tactics. In the face of this evolving strategic landscape the ability of SOF to operate unobtrusively with a small footprint in contested environments is becoming ever more crucial.    As a result it is important that we get our policy for and our oversight of SOF right. So I will describe some of our major priorities. First and foremost we prioritize developing the best SOF personnel and equipping them with cutting-edge technologies.    That requires constantly improving our existing platforms, equipment, and gear. It also means investing in new, innovative technologies. Another important policy priority is building strong working relationships with the SOF of allied and partner nations.    By boosting other nations' SOF capabilities we have the potential in the future to leverage those forces including their unique authorities. In particular the Counterterrorism Partnership Fund, CTPF, significantly boosted our most important tool, section 2282, the Global Train and Equip authority.    We appreciate Congress's continued support for this and other capacity-building authorities. Likewise our counterdrug authorities permit SOF and other DOD components to work with U.S. partner nation law enforcement to help counter drug trafficking and other forms of transnational organized crime which can serve as a source of funding for terrorists, insurgents, and other threat networks.    Another important part of SOLIC's work is oversight. For example we work with the Joint Staff and SOCOM to ensure that SOF activities are consistent with the policy guidance of the President and the Secretary of Defense.    We also routinely conduct site surveys to assess and evaluate our train and equip programs so that they are as effective and efficient as possible. SOF amounts to roughly 1.8 percent of the overall defense budget, and we remain committed to strengthening our budget management to maximize taxpayers' return on investments in SOF.    We will continue to work closely with Congress as we allocate resources and implement programs. In conclusion, I would like to thank Congress for its continuing support of our men and women in uniform and their families. And I look forward to your questions.    [The prepared statement of Ms. Whelan can be found in the Appendix on page 31.]</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>412283</t>
   </si>
   <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Mr. Chairman. Gentleman and lady, thank you for being here.    I have got a couple things. It will probably go fast. One, I grabbed the Marine Corps about 2 months ago and brought them up to my office because there were some guys in from Australia where they use moving robot targets that they can network and program to run together, run away, or charge you, or flee.    And what the Australian SAS [Special Air Services] figured out is it was the first time a lot of their guys hadn't been overseas and had to shoot people, had shot a moving target. Are you aware of anything like this? Is SOCOM aware of them?    General Votel. I am aware of a variety of----</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. Thank you to both our witnesses.    General Votel, you mentioned in your testimony transregional challenges and the fact that operating across geographic combatant command boundaries is problematic for us. Do you believe personally that the DOD's geographic combatant command structure is set up in a way to effectively combat the challenges we face now and in the future?    General Votel. I think we are. Certainly when any particular organization focuses in a particular region they have a tendency to focus in that region and not as much on outside of that.    What we are attempting to do with our transregional look, particularly at terrorist organizations, is to really bridge that together.    So what SOCOM has been asked to do is to take lead in how we look at transregional violent extremism, how we establish a common intelligence picture for organization like the Islamic State, how we establish common operating pictures, how we assess ourselves across the whole threat.    And then how we make recommendations up through the Chairman to the Secretary of Defense for allocations of our resources, how we go after that particular threat.    So you know I think what we have learned here is that the enemies we face, not just terrorists, but I think if you look at things like Russia or other threats that we have out there, they don't operate with inside of bureaucratic boundaries that we may have established.    And so, it is important that we have the ability to transcend these boundaries and look at the whole problem instead of just portions of the geography. And that is what our transregional approach is attempting to do.</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And I appreciate the panel here today and, General, particularly, your service to our country.    I want to talk about particularly the branches and support that you receive from all. You know, within the current budget environment you know the support for special operations is clearly strained.    For example the Navy's intent to cut the reserve helicopter squadrons 84 and 85 which actually provided, you know, 70 percent of the lift for special operators. And obviously the Navy, you know, they saw it as an underutilized helicopter squadrons because it wasn't supporting the Navy mission necessarily. And it kind of got lost in the shuffle.    So if you could, is there a way for you to tell me the dollar amount in regards to what the service branches, what the quantity of support is that they provide you? Is there a way of breaking out what that is? Whether it is, you know, big Army, or the Navy, or the Air Force? Is there a way or is there a measurement of exactly what that costs those branches?    General Votel. Congressman, I think there probably is. I would, with your indulgence, I would take that for the record and try to provide you a response in terms of how we do that. I would just say right up front though that, as I mentioned in my remarks, we are extraordinarily dependent on the services.    [The information referred to can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -229,9 +211,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. I am just trying to figure out what help that might be in this context. But moving on.    First of all, Secretary Votel and, excuse me, Secretary Whelan and General Votel. General, congratulations on your new assignment.    I want to focus on ISR for a few moments, and whether the requirements are being met or what you might need. We will soon be writing a new authorization here. And this seems to be one area where there is great demand and not enough supply. So, General, let me start with you specifically about ISR requirements, manned, unmanned, any other thing that you might need.    General Votel. Thanks. Thanks, Congressman. Let me just state right up front you are not going to meet many military leaders that are going to tell you that they are satisfied with the amount of ISR that they have.    We have an insatiable appetite for it. It has changed our operations, the way we conduct things, significantly. And so you are not going meet many people who are going to say, yes, I have everything I need.    With that, having said that, we, of course, make a fairly significant investment within our SOCOM authority here for SOF unique capabilities both manned and unmanned to meet some of our requirements.    That meets a portion of our requirements. But we are, again, to the earlier conversation, we are dependent on the services to do that. So one of the things that I am very happy for this coming year is that there is good work at the Department level to address the broader ISR requirements out there.    And, of course, as you look at ISR it isn't just about platforms in the sky. It is about those platforms. It is about the sensors we put on them. It is about the ability to transmit that information across the network. And then it is about the ability to exploit that information so we understand what we are looking at.    And so all of that, I think, really requires a very comprehensive Department look. And so I am very pleased that the Department is approaching it in that manner. And so we will continue to press our requirements for that. And I think the Department has heard us and others here on this particular topic.</t>
   </si>
   <si>
@@ -277,9 +256,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman. Thank you both for what you do for our country, General Votel, for your service. I really appreciate that.    Let me ask, drill down on a particular issue that another Congresswoman, Gwen Graham, and I have worked on. In last year's fiscal year 2016 NDAA we were able to, with the help of the rest of the committee and the rest of Congress, obtain money for Israel to do tunnel detection and research and development so as to detect and map and defeat tunnels.    And this is a joint program because our country can benefit from this also. And $40 million was authorized and appropriated. And I know that CTTSO, the Counter Combatting Terrorism and Technical Support Office, is playing a role in this along with JITDA, the Joint Improvised Threat Defeat Agency.    So how are things going? And what progress are we making? And what kind of feedback can you give us on this particular narrow, but important subject?</t>
   </si>
   <si>
@@ -301,9 +277,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you, Mr. Chairman. And thank you both for your service. I want to focus in on something that we are involved in at the UARC [University Affiliated Research Institute], The University of Nebraska in conjunction with STRATCOM [U.S. Strategic Command].    The mission, one of the missions of the UARC there deals with basically supporting our warfighters, finding ways to protect them by developing wearables to detect foreign agents, and so forth and so on.    And today I was talking to them. They talked about a vaccine that they have developed to inoculate SEALs to specific bio threats. So there is this ongoing, I am sure by others other than the UARC in Omaha, but across the country and other places.    How is that going in developing wearables to make our warfighters safer? And where do you see those partnerships going in the future? General or Ms. Whelan.    General Votel. Let me start. Congressman, I will tell you I am not particularly familiar with the program that you are talking about here. But to your point about the things that we are doing to try to protect our operators better.    Within SOCOM we have made a significant investment in this particular area, particularly in some of our technology development areas. We have a program we call TALOS [Tactical Assault Light Operator Suit]. And what it is designed to do, is it is designed to really help protect our operators at their most vulnerable point.    And that is not just physical protection, but it is also medical protection and it is increased situational awareness, it is increased visibility. So we are very focused on making sure that our people, you know, have the most advantage at the points of which they are most vulnerable.    And I can certainly see a program like you are outlining here as being very helpful. You know, some of the areas in which we do operate are not the most pleasant environments. And so we have to make sure we do everything we can to protect our people. So I look forward to looking at the program that you describe here and how we might combine that with some of our current efforts.</t>
   </si>
   <si>
@@ -322,9 +295,6 @@
     <t>412640</t>
   </si>
   <si>
-    <t>Ryan K. Zinke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zinke. Well, I can tell you, General, it was a lot easier being a SEAL. But good to see that you have a Frogman with you.    I guess what I hear from friends and acquaintances that are still on the teams, there is a lot of frustration on rules of engagement, particularly prioritization of collateral damage, and the time it goes through the process. There is frustration on acquisition, on getting things quicker to the front lines.    And you know when I looked at it, it was you know as bureaucracies expand over the period of time, we have kind of lost from what I see a little edge of getting things the quickest because of the process in place. And sometimes the process mitigates the risk. But the downside of it is that we don't get things to the front line fast enough.    And, of course, then the debate between is it a service support, is it a SOF support, what do we do? And there is an unintended consequence sometimes where the services have different priorities. And as they contract their services, the unintended consequence is we don't have, you know, a view from here of what it means to SOF. The HS [helicopter support] squadrons for example.    But do you track when the SOF forces ask whether it is a RPA [remotely piloted aircraft] or a boat or a you know regular helicopter, do we track the number of requests versus the number of fills, whether they fulfilled those requests?    And if that is declining, which I sense it is, do the group commanders and the SOF forces track that so we can have a look at it to make sure that, if there is a cut, intended cut, we can get in there and make sure that the priority is known?    General Votel. Certainly from the U.S. SOCOM headquarters level we track the requirements that our forces put out there and then how those are being fulfilled. So the quick answer to your question is yes we do. I don't have the immediate number for you so I won't hazard a guess here.    And I would be happy to respond with something on that. But we certainly do track our requirements for all of our organizations.    [The information referred to can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -353,9 +323,6 @@
   </si>
   <si>
     <t>412648</t>
-  </si>
-  <si>
-    <t>Elise M. Stefanik</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you to Ms. Whelan and General Votel for testifying here today and for your service and leadership to our Nation. General Votel, I wanted to congratulate you and wish you my best for what I am sure will be a swift confirmation for Central Command.    I wanted to direct my questions to you, General Votel. At your recommendation I recently met with Mr. James Geurts, Director of SOF Acquisition, Technology, and Logistics about SOFWERX, which you and I discussed.    And I was encouraged by their willingness to embrace and support innovation in unique ways. Can you just describe to the committee today why you think SOFWERX is important and what new initiatives have come from it?    General Votel. Yes. Thanks. And thanks for your recent visit. We are very glad to host you down there.    So what SOFWERX does for us is it provides us a publically available platform where we can bring members of academia, members of industry, a variety of others into our spaces, and we can collaborate on problems that we have, as perhaps you may have seen or heard a little bit more about that from Mr. Geurts.    What we are able to do is we are able to take advantage of technology, laser printing, other things that are right there for us to do rapid prototyping. Rapid prototyping is, I think, is one of the biggest lessons that we have learned out of this.    We can bring operators together with scholars, with members of industry. We can address hard problems. And as we look at the solutions that industry provides to us we can provide them immediate feedback from an operator who will say why this won't work or why it might work or what we might do to it to make it better.    And then we can immediately model that through the, kind of the magic of laser printing right here and immediately look at how that might work. So I think it is changing. It is helping us address hard problems.    It is helping us identify solutions faster. And it is changing the way that we look at acquisition in Special Operations Command. Much more collaborative, much more focused on rapid prototyping, and much more focused on being open and available to industry and academia.</t>
@@ -766,11 +733,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -790,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -818,11 +781,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -842,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -870,11 +829,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -896,11 +853,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -920,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -948,11 +901,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -974,11 +925,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -998,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1026,11 +973,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1050,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1076,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1102,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1128,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1154,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1180,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1208,11 +1141,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1232,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1258,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1284,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1310,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1336,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1362,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1388,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1414,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1440,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1466,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1492,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1520,11 +1429,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1544,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1570,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1596,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1622,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1648,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1674,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1702,11 +1597,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1726,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1752,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1778,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1804,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1832,11 +1717,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1856,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>59</v>
-      </c>
-      <c r="H44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1882,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1908,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1934,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1962,11 +1837,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1986,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2012,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2038,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2064,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2090,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2116,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2142,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>71</v>
-      </c>
-      <c r="H55" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2168,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2194,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2220,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2246,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2272,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2298,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2326,11 +2173,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2350,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2376,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2402,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2428,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2454,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2482,11 +2317,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2506,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2532,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2558,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2584,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2612,11 +2437,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2636,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2662,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
-      </c>
-      <c r="G75" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2688,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2714,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2740,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2766,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2792,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2818,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2846,11 +2653,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2870,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>112</v>
-      </c>
-      <c r="G83" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2896,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2922,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
-      </c>
-      <c r="G85" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2950,11 +2749,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99648.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99648.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Ladies and gentlemen, I call this hearing of the Emerging Threats and Capabilities Subcommittee of the House Armed Services Committee to order. I am pleased to welcome everyone here today to discuss our special operations forces in an evolving threat environment and to review the fiscal year 2017 budget request for the U.S. Special Operations Command.    Our special operations forces [SOF] remain essential and sometimes sole line of effort across the globe, offering lethal, flexible, and responsive options for geographic combatant commanders and the Commander in Chief.    We have seen special operations forces increasingly leveraged for asymmetric and unconventional warfare operations against nation-state threats such as Russia, China, and Iran. Looking forward we expect special operations forces to remain heavily deployed across the globe in constant, sadly if not increased, numbers throughout fiscal year 2017.    While the President's budget request includes a 2.3 percent increase to U.S. Special Operations Command, many challenges remain since the force is heavily dependent on overseas contingency operations funding.    Furthermore, we see dwindling support from the military services who themselves suffer broader cuts and drawdowns. As we conduct oversight and preparation for the National Defense Authorization Act [NDAA], this subcommittee will spend considerable time ensuring that all resources are aligned and all policies appropriate.    This includes focusing on how our special operations forces are being used to counter adversarial propaganda and enabling our partner forces across the globe with new programs such as the European Reassurance Initiative and the Counter Terrorism Partnership Fund.    Lastly, but of considerable importance, is the 1208 counterterrorism program authority used by the special operations requiring reauthorization beyond 2017. This important operational authority has proven critical to our global efforts to counter Al Qaeda and Daesh.    I understand the Department [of Defense] [DOD] will seek an extension of this important authority to 2020. So we look forward to discussing that today.    I would like to welcome our distinguished panel of witnesses and appreciate their service and perspectives on all of these issues. Today we welcome Ms. Theresa Whelan, the Principal Deputy Assistant Secretary of Defense for Special Operations and Low-Intensity Conflict [SOLIC], and General Joseph Votel, Commander, U.S. Special Operations Command.    I would like to welcome Ms. Whelan in her new role which carries many important responsibilities, but also take the opportunity to recognize the service of General Votel who was recently nominated as commander of U.S. Central Command.    General Votel's contributions have been critical in safeguarding our Nation and our allies. And we wish you the best of success as you further serve American families.    I would like to turn to my friend the ranking member, Mr. Jim Langevin of Rhode Island, for any comments he would like to make.    [The prepared statement of Mr. Wilson can be found in the Appendix on page 29.]</t>
   </si>
   <si>
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you Mr. Chairman. And I want to thank our witnesses for testifying today on the President's fiscal year 2017 budget request for Special Operations Command [SOCOM] and special operations forces.    And, General, in particular, thank you very much for your service. And I look forward to hearing the testimony from both of our witnesses today. And also welcome to you, Secretary Whelan.    Today in the midst of our discussions and debate about decreasing end strengths of general purpose forces, and plan drawdowns and contingencies overseas, our special operations forces continue to serve in a high operational tempo.    Special forces are the pinnacle of our strategy for defeating terrorists around the world, underpin our sensitive military operations, and stand ready to deploy on a moment's notice.    Although SOCOM has authority for spending on SOF-peculiar equipment and needs, we often neglect to recognize the reliance on general purpose forces and service budget's requirements ranging from enablers to facilities, to family counselors.    I hope today's hearing will provide a better understanding of the impact of those drawdowns and budget reductions of their enterprise as well as inform us of the process in place for ensuring that SOF service common needs are being budgeted for by the services, especially those that are necessary to preserve the health of the force and their families.    With regard to SOF-peculiar investments, I am pleased to see stability in the science and technology allocation, as well appropriate budgeting for these activities over the Future Years Defense Program.    Leveraging and spurring innovation is a theme across the Department in the budget request. And SOCOM certainly has experience in the area.    I appreciate the use of existing authorities to push the envelope rather than reinventing the wheel, examples being the recent SOFWERX Initiative and the utilization of the Small Business Innovation Research authority.    I also appreciate that in reaching to non-traditional defense partners, SOCOM continues to utilize the tremendous in-house capabilities available, such as our defense labs and DARPA [Defense Advanced Research Projects Agency] programs.    So with that there is much to discuss in the hearing. And in order to allow for dialogue I am going to end my remarks by welcoming Ms. Theresa Whelan in her capacity as the Principal Deputy Assistant Secretary of Defense, Special Operations/Low-Intensity Conflict and performing the duties of Assistant Secretary for SOLIC.    With that I would also like to congratulate General Votel on his nomination to be the commander of Central Command. Again, General, I want to thank you for your extraordinary service and dedication to our country and look forward to your upcoming confirmation hearing.    So with that, Mr. Chairman, I yield back and look forward to the hearing. Thank you.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whelan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Whelan. Thank you, Chairman Wilson, Ranking Member Langevin, and distinguished members of the committee. And thank you for the opportunity to testify before you today.    I am here performing the duties of the Assistant Secretary of Defense for Special Operations and Low-Intensity Conflict to report to you on the health and welfare of our Nation's special operations forces enterprise, and on our ability to address our country's security concerns using special operations, now and into the future.    I am pleased that my partner at the table this afternoon is General Votel, who has been an exceptional U.S. SOCOM commander. And our entire SOLIC team was very glad to learn that he has been nominated to lead U.S. Central Command.    I would like to say up front that we are very grateful for the committee's strong support of special operations initiatives and resources. My remarks this afternoon will focus on three topics: the current operating environment, SOLIC's policy priorities, and our oversight activities.    Today our SOF personnel work in an environment where global conflict has expanded beyond the physical to dimensions such as cyberspace, the social media sphere, and bio warfare. Individuals, illicit networks, and terrorist groups such as Daesh can disrupt economies, interrupt the flow of information, and perpetrate significant violence, destabilizing countries and entire regions.    We are also seeing other nations, our peers and near peers, making use of these same new technologies to enhance aggressive, asymmetric tactics. In the face of this evolving strategic landscape the ability of SOF to operate unobtrusively with a small footprint in contested environments is becoming ever more crucial.    As a result it is important that we get our policy for and our oversight of SOF right. So I will describe some of our major priorities. First and foremost we prioritize developing the best SOF personnel and equipping them with cutting-edge technologies.    That requires constantly improving our existing platforms, equipment, and gear. It also means investing in new, innovative technologies. Another important policy priority is building strong working relationships with the SOF of allied and partner nations.    By boosting other nations' SOF capabilities we have the potential in the future to leverage those forces including their unique authorities. In particular the Counterterrorism Partnership Fund, CTPF, significantly boosted our most important tool, section 2282, the Global Train and Equip authority.    We appreciate Congress's continued support for this and other capacity-building authorities. Likewise our counterdrug authorities permit SOF and other DOD components to work with U.S. partner nation law enforcement to help counter drug trafficking and other forms of transnational organized crime which can serve as a source of funding for terrorists, insurgents, and other threat networks.    Another important part of SOLIC's work is oversight. For example we work with the Joint Staff and SOCOM to ensure that SOF activities are consistent with the policy guidance of the President and the Secretary of Defense.    We also routinely conduct site surveys to assess and evaluate our train and equip programs so that they are as effective and efficient as possible. SOF amounts to roughly 1.8 percent of the overall defense budget, and we remain committed to strengthening our budget management to maximize taxpayers' return on investments in SOF.    We will continue to work closely with Congress as we allocate resources and implement programs. In conclusion, I would like to thank Congress for its continuing support of our men and women in uniform and their families. And I look forward to your questions.    [The prepared statement of Ms. Whelan can be found in the Appendix on page 31.]</t>
   </si>
   <si>
@@ -115,6 +133,12 @@
     <t>412283</t>
   </si>
   <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Mr. Chairman. Gentleman and lady, thank you for being here.    I have got a couple things. It will probably go fast. One, I grabbed the Marine Corps about 2 months ago and brought them up to my office because there were some guys in from Australia where they use moving robot targets that they can network and program to run together, run away, or charge you, or flee.    And what the Australian SAS [Special Air Services] figured out is it was the first time a lot of their guys hadn't been overseas and had to shoot people, had shot a moving target. Are you aware of anything like this? Is SOCOM aware of them?    General Votel. I am aware of a variety of----</t>
   </si>
   <si>
@@ -154,6 +178,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. Thank you to both our witnesses.    General Votel, you mentioned in your testimony transregional challenges and the fact that operating across geographic combatant command boundaries is problematic for us. Do you believe personally that the DOD's geographic combatant command structure is set up in a way to effectively combat the challenges we face now and in the future?    General Votel. I think we are. Certainly when any particular organization focuses in a particular region they have a tendency to focus in that region and not as much on outside of that.    What we are attempting to do with our transregional look, particularly at terrorist organizations, is to really bridge that together.    So what SOCOM has been asked to do is to take lead in how we look at transregional violent extremism, how we establish a common intelligence picture for organization like the Islamic State, how we establish common operating pictures, how we assess ourselves across the whole threat.    And then how we make recommendations up through the Chairman to the Secretary of Defense for allocations of our resources, how we go after that particular threat.    So you know I think what we have learned here is that the enemies we face, not just terrorists, but I think if you look at things like Russia or other threats that we have out there, they don't operate with inside of bureaucratic boundaries that we may have established.    And so, it is important that we have the ability to transcend these boundaries and look at the whole problem instead of just portions of the geography. And that is what our transregional approach is attempting to do.</t>
   </si>
   <si>
@@ -178,6 +208,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And I appreciate the panel here today and, General, particularly, your service to our country.    I want to talk about particularly the branches and support that you receive from all. You know, within the current budget environment you know the support for special operations is clearly strained.    For example the Navy's intent to cut the reserve helicopter squadrons 84 and 85 which actually provided, you know, 70 percent of the lift for special operators. And obviously the Navy, you know, they saw it as an underutilized helicopter squadrons because it wasn't supporting the Navy mission necessarily. And it kind of got lost in the shuffle.    So if you could, is there a way for you to tell me the dollar amount in regards to what the service branches, what the quantity of support is that they provide you? Is there a way of breaking out what that is? Whether it is, you know, big Army, or the Navy, or the Air Force? Is there a way or is there a measurement of exactly what that costs those branches?    General Votel. Congressman, I think there probably is. I would, with your indulgence, I would take that for the record and try to provide you a response in terms of how we do that. I would just say right up front though that, as I mentioned in my remarks, we are extraordinarily dependent on the services.    [The information referred to can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -211,6 +247,12 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. I am just trying to figure out what help that might be in this context. But moving on.    First of all, Secretary Votel and, excuse me, Secretary Whelan and General Votel. General, congratulations on your new assignment.    I want to focus on ISR for a few moments, and whether the requirements are being met or what you might need. We will soon be writing a new authorization here. And this seems to be one area where there is great demand and not enough supply. So, General, let me start with you specifically about ISR requirements, manned, unmanned, any other thing that you might need.    General Votel. Thanks. Thanks, Congressman. Let me just state right up front you are not going to meet many military leaders that are going to tell you that they are satisfied with the amount of ISR that they have.    We have an insatiable appetite for it. It has changed our operations, the way we conduct things, significantly. And so you are not going meet many people who are going to say, yes, I have everything I need.    With that, having said that, we, of course, make a fairly significant investment within our SOCOM authority here for SOF unique capabilities both manned and unmanned to meet some of our requirements.    That meets a portion of our requirements. But we are, again, to the earlier conversation, we are dependent on the services to do that. So one of the things that I am very happy for this coming year is that there is good work at the Department level to address the broader ISR requirements out there.    And, of course, as you look at ISR it isn't just about platforms in the sky. It is about those platforms. It is about the sensors we put on them. It is about the ability to transmit that information across the network. And then it is about the ability to exploit that information so we understand what we are looking at.    And so all of that, I think, really requires a very comprehensive Department look. And so I am very pleased that the Department is approaching it in that manner. And so we will continue to press our requirements for that. And I think the Department has heard us and others here on this particular topic.</t>
   </si>
   <si>
@@ -256,6 +298,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman. Thank you both for what you do for our country, General Votel, for your service. I really appreciate that.    Let me ask, drill down on a particular issue that another Congresswoman, Gwen Graham, and I have worked on. In last year's fiscal year 2016 NDAA we were able to, with the help of the rest of the committee and the rest of Congress, obtain money for Israel to do tunnel detection and research and development so as to detect and map and defeat tunnels.    And this is a joint program because our country can benefit from this also. And $40 million was authorized and appropriated. And I know that CTTSO, the Counter Combatting Terrorism and Technical Support Office, is playing a role in this along with JITDA, the Joint Improvised Threat Defeat Agency.    So how are things going? And what progress are we making? And what kind of feedback can you give us on this particular narrow, but important subject?</t>
   </si>
   <si>
@@ -277,6 +325,12 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you, Mr. Chairman. And thank you both for your service. I want to focus in on something that we are involved in at the UARC [University Affiliated Research Institute], The University of Nebraska in conjunction with STRATCOM [U.S. Strategic Command].    The mission, one of the missions of the UARC there deals with basically supporting our warfighters, finding ways to protect them by developing wearables to detect foreign agents, and so forth and so on.    And today I was talking to them. They talked about a vaccine that they have developed to inoculate SEALs to specific bio threats. So there is this ongoing, I am sure by others other than the UARC in Omaha, but across the country and other places.    How is that going in developing wearables to make our warfighters safer? And where do you see those partnerships going in the future? General or Ms. Whelan.    General Votel. Let me start. Congressman, I will tell you I am not particularly familiar with the program that you are talking about here. But to your point about the things that we are doing to try to protect our operators better.    Within SOCOM we have made a significant investment in this particular area, particularly in some of our technology development areas. We have a program we call TALOS [Tactical Assault Light Operator Suit]. And what it is designed to do, is it is designed to really help protect our operators at their most vulnerable point.    And that is not just physical protection, but it is also medical protection and it is increased situational awareness, it is increased visibility. So we are very focused on making sure that our people, you know, have the most advantage at the points of which they are most vulnerable.    And I can certainly see a program like you are outlining here as being very helpful. You know, some of the areas in which we do operate are not the most pleasant environments. And so we have to make sure we do everything we can to protect our people. So I look forward to looking at the program that you describe here and how we might combine that with some of our current efforts.</t>
   </si>
   <si>
@@ -295,6 +349,12 @@
     <t>412640</t>
   </si>
   <si>
+    <t>Zinke</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zinke. Well, I can tell you, General, it was a lot easier being a SEAL. But good to see that you have a Frogman with you.    I guess what I hear from friends and acquaintances that are still on the teams, there is a lot of frustration on rules of engagement, particularly prioritization of collateral damage, and the time it goes through the process. There is frustration on acquisition, on getting things quicker to the front lines.    And you know when I looked at it, it was you know as bureaucracies expand over the period of time, we have kind of lost from what I see a little edge of getting things the quickest because of the process in place. And sometimes the process mitigates the risk. But the downside of it is that we don't get things to the front line fast enough.    And, of course, then the debate between is it a service support, is it a SOF support, what do we do? And there is an unintended consequence sometimes where the services have different priorities. And as they contract their services, the unintended consequence is we don't have, you know, a view from here of what it means to SOF. The HS [helicopter support] squadrons for example.    But do you track when the SOF forces ask whether it is a RPA [remotely piloted aircraft] or a boat or a you know regular helicopter, do we track the number of requests versus the number of fills, whether they fulfilled those requests?    And if that is declining, which I sense it is, do the group commanders and the SOF forces track that so we can have a look at it to make sure that, if there is a cut, intended cut, we can get in there and make sure that the priority is known?    General Votel. Certainly from the U.S. SOCOM headquarters level we track the requirements that our forces put out there and then how those are being fulfilled. So the quick answer to your question is yes we do. I don't have the immediate number for you so I won't hazard a guess here.    And I would be happy to respond with something on that. But we certainly do track our requirements for all of our organizations.    [The information referred to can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -323,6 +383,12 @@
   </si>
   <si>
     <t>412648</t>
+  </si>
+  <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you to Ms. Whelan and General Votel for testifying here today and for your service and leadership to our Nation. General Votel, I wanted to congratulate you and wish you my best for what I am sure will be a swift confirmation for Central Command.    I wanted to direct my questions to you, General Votel. At your recommendation I recently met with Mr. James Geurts, Director of SOF Acquisition, Technology, and Logistics about SOFWERX, which you and I discussed.    And I was encouraged by their willingness to embrace and support innovation in unique ways. Can you just describe to the committee today why you think SOFWERX is important and what new initiatives have come from it?    General Votel. Yes. Thanks. And thanks for your recent visit. We are very glad to host you down there.    So what SOFWERX does for us is it provides us a publically available platform where we can bring members of academia, members of industry, a variety of others into our spaces, and we can collaborate on problems that we have, as perhaps you may have seen or heard a little bit more about that from Mr. Geurts.    What we are able to do is we are able to take advantage of technology, laser printing, other things that are right there for us to do rapid prototyping. Rapid prototyping is, I think, is one of the biggest lessons that we have learned out of this.    We can bring operators together with scholars, with members of industry. We can address hard problems. And as we look at the solutions that industry provides to us we can provide them immediate feedback from an operator who will say why this won't work or why it might work or what we might do to it to make it better.    And then we can immediately model that through the, kind of the magic of laser printing right here and immediately look at how that might work. So I think it is changing. It is helping us address hard problems.    It is helping us identify solutions faster. And it is changing the way that we look at acquisition in Special Operations Command. Much more collaborative, much more focused on rapid prototyping, and much more focused on being open and available to industry and academia.</t>
@@ -683,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +757,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2045 +779,2447 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
       <c r="H27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G63" t="s">
+        <v>94</v>
+      </c>
       <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>94</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
       <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G67" t="s">
+        <v>94</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
       <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G72" t="s">
+        <v>103</v>
+      </c>
       <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G74" t="s">
+        <v>111</v>
+      </c>
       <c r="H74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G75" t="s">
+        <v>111</v>
+      </c>
       <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G76" t="s">
+        <v>111</v>
+      </c>
       <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G77" t="s">
+        <v>111</v>
+      </c>
       <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G78" t="s">
+        <v>111</v>
+      </c>
       <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G79" t="s">
+        <v>111</v>
+      </c>
       <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G80" t="s">
+        <v>111</v>
+      </c>
       <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G81" t="s">
+        <v>111</v>
+      </c>
       <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
       <c r="H83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G84" t="s">
+        <v>123</v>
+      </c>
       <c r="H84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G85" t="s">
+        <v>123</v>
+      </c>
       <c r="H85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99648.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99648.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Langevin</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>412283</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Hunter</t>
@@ -749,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +769,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,2444 +794,2676 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G65" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I66" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="H70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G72" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="H72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I72" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G74" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G75" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G77" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I77" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H83" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H84" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
